--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184598.2032811636</v>
+        <v>183264.8485486611</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21676464.76147076</v>
+        <v>22099924.35763672</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7008320.678516634</v>
+        <v>7423353.428718869</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5780978.918653375</v>
+        <v>5572529.116359</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9157018704136</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.171072741258258</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>137.599566113827</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.3496532346247</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>237.6739947327238</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>27.28740366747457</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>115.7595572937998</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.21677751456729</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>301.3008021601255</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>83.18350266509944</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.42894579208244</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>162.1501969981302</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>155.7434090768876</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>131.5141848153389</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>237.1124856635373</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>56.39758722032963</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170476</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1850,10 +1852,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>83.18350266509924</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>53.00122480006321</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>91.22804483867596</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>268.3727301458104</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>53.00122480006321</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2330,13 +2332,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.98021706930135</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>158.5152792571854</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>85.05436913038184</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2776,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>189.9879808696994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>35.16791248334739</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>35.16791248334784</v>
       </c>
     </row>
     <row r="30">
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>90.30617524481291</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3035,10 +3037,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>53.00122480006277</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>68.85038883756854</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>124.0823187496523</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.505548415666563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>24.62703520776661</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3515,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>35.16791248334732</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>28.60468344882636</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3664,19 +3666,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9394714210109</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>152.5004364948338</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>54.55340531488847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>64.31307662928398</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>373.7197913037078</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>35.16791248334784</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>131.996999652747</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648.8602641703436</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="C2" t="n">
-        <v>648.8602641703436</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D2" t="n">
-        <v>648.8602641703436</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E2" t="n">
-        <v>648.8602641703436</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F2" t="n">
-        <v>220.9928345795514</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2364.148722719356</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>2001.531772653183</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>1596.676318064216</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355598</v>
+        <v>1177.533854643527</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.159834655251</v>
+        <v>769.2477309431802</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>277.788090829541</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>938.6281453713194</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>938.6281453713194</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.8972536055599</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C4" t="n">
-        <v>731.3355420887848</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D4" t="n">
-        <v>565.4575492903075</v>
+        <v>767.4178585721226</v>
       </c>
       <c r="E4" t="n">
-        <v>395.6995455410447</v>
+        <v>597.6598548228599</v>
       </c>
       <c r="F4" t="n">
-        <v>218.9924915028009</v>
+        <v>420.9528007846161</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933182</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644535</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324147</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.988166267505</v>
+        <v>892.9415207219413</v>
       </c>
       <c r="C5" t="n">
-        <v>1605.988166267505</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.988166267505</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2429.986084277161</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>2429.986084277161</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W5" t="n">
-        <v>2025.130629688195</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X5" t="n">
-        <v>1605.988166267505</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y5" t="n">
-        <v>1605.988166267505</v>
+        <v>892.9415207219413</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>990.3147246321321</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>817.753013115357</v>
+        <v>624.5483869002998</v>
       </c>
       <c r="D7" t="n">
-        <v>651.8750203168797</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="E7" t="n">
-        <v>482.117016567617</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4720,22 +4722,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.133343351119</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1182.133343351119</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>927.4534741707607</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="C8" t="n">
-        <v>489.311001354184</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="D8" t="n">
-        <v>53.40121652862856</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="E8" t="n">
-        <v>53.40121652862856</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>647.2924050644597</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.037086365671</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.181631776704</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.039168356015</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1353.753044655668</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4957,22 +4959,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K10" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1057.14638787069</v>
+        <v>491.5436893452053</v>
       </c>
       <c r="C11" t="n">
-        <v>619.0039150541138</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="D11" t="n">
-        <v>619.0039150541138</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E11" t="n">
-        <v>619.0039150541138</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F11" t="n">
-        <v>619.0039150541138</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G11" t="n">
-        <v>217.6060836773777</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5072,19 +5074,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2512.744251606289</v>
       </c>
       <c r="V11" t="n">
-        <v>2307.443876365254</v>
+        <v>2150.127301540116</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.588421776288</v>
+        <v>1745.271846951149</v>
       </c>
       <c r="X11" t="n">
-        <v>1483.445958355598</v>
+        <v>1326.12938353046</v>
       </c>
       <c r="Y11" t="n">
-        <v>1483.445958355598</v>
+        <v>917.8432598301131</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O12" t="n">
-        <v>397.8892067392439</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5194,16 +5196,16 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
@@ -5221,22 +5223,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>2110.679579088667</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V13" t="n">
-        <v>1823.724070959097</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W13" t="n">
-        <v>1551.697666545389</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X13" t="n">
         <v>1551.697666545389</v>
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1180.255776660564</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C14" t="n">
-        <v>1180.255776660564</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D14" t="n">
-        <v>744.3459918350084</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E14" t="n">
-        <v>744.3459918350084</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F14" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G14" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5309,19 +5311,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2430.553265155128</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2430.553265155128</v>
+        <v>2613.093566612913</v>
       </c>
       <c r="W14" t="n">
-        <v>2025.697810566161</v>
+        <v>2208.238112023947</v>
       </c>
       <c r="X14" t="n">
-        <v>1606.555347145472</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y14" t="n">
-        <v>1606.555347145472</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N15" t="n">
-        <v>53.40121652862856</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="O15" t="n">
-        <v>397.8892067392439</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q15" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.8950539462408</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C16" t="n">
-        <v>590.3333424294657</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D16" t="n">
-        <v>424.4553496309884</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E16" t="n">
-        <v>254.6973458817257</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F16" t="n">
-        <v>77.99029184348186</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5440,7 +5442,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U16" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y16" t="n">
-        <v>954.7136726652279</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.477214236518</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C17" t="n">
-        <v>573.3347414199409</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D17" t="n">
-        <v>137.4249565943854</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40121652862856</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M17" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N17" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O17" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5552,13 +5554,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W17" t="n">
-        <v>2265.205371842461</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="X17" t="n">
-        <v>1846.062908421772</v>
+        <v>2197.381772303605</v>
       </c>
       <c r="Y17" t="n">
-        <v>1437.776784721425</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N18" t="n">
-        <v>53.40121652862856</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="O18" t="n">
-        <v>397.8892067392439</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q18" t="n">
         <v>1599.468199913098</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5698,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1900.702736771365</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C20" t="n">
-        <v>1462.560263954788</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D20" t="n">
-        <v>1026.650479129233</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E20" t="n">
-        <v>592.8757342875278</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F20" t="n">
-        <v>165.0083046967356</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G20" t="n">
-        <v>72.85876445564877</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>72.85876445564877</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>72.85876445564877</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>72.85876445564877</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M20" t="n">
-        <v>974.4859745943021</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="N20" t="n">
-        <v>1197.348287098736</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="O20" t="n">
-        <v>2098.97549723739</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P20" t="n">
-        <v>2927.285372070786</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
-        <v>3473.784158029381</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>3559.286348966275</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>3559.286348966275</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U20" t="n">
-        <v>3559.286348966275</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V20" t="n">
-        <v>3559.286348966275</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W20" t="n">
-        <v>3154.430894377309</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X20" t="n">
-        <v>2735.288430956619</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y20" t="n">
-        <v>2327.002307256273</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>579.0305094469416</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>472.5740482835839</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>377.4837594301371</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>283.3633447570908</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>199.9795063732524</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>114.5944166394363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>98.92243761610636</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J21" t="n">
-        <v>98.92243761610636</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K21" t="n">
-        <v>98.92243761610636</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L21" t="n">
-        <v>98.92243761610636</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M21" t="n">
-        <v>98.92243761610636</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N21" t="n">
-        <v>98.92243761610636</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="O21" t="n">
-        <v>258.4636427288442</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P21" t="n">
-        <v>1078.186809208042</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q21" t="n">
-        <v>1618.925747840118</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R21" t="n">
-        <v>1736.098525934458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1672.643088382841</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1542.464444713442</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1366.127897713411</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1167.01037977541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>981.687625508604</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>826.8201897474839</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>700.3344105267047</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.35480153258</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>750.793090015805</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>584.9150972173277</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>415.1570934680649</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>238.4500394298211</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>159.4384496203386</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>434.1969041914742</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>852.4067859594353</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1311.890653140348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1754.149456297993</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.818705523774</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2521.325599494116</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2671.279205315764</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2425.399758894219</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.966758147325</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1860.011250017755</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.984845604047</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.593090937459</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1115.173420251567</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M24" t="n">
-        <v>4648.527086152673</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N24" t="n">
-        <v>5113.042013538981</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.042013538981</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1756.718735138289</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.576262321712</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="D26" t="n">
-        <v>882.6664774961569</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F26" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L26" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M26" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6257,19 +6259,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2509.944382737302</v>
       </c>
       <c r="V26" t="n">
-        <v>2670.060826431428</v>
+        <v>2147.327432671128</v>
       </c>
       <c r="W26" t="n">
-        <v>2584.147322259325</v>
+        <v>1742.471978082162</v>
       </c>
       <c r="X26" t="n">
-        <v>2165.004858838636</v>
+        <v>1323.329514661472</v>
       </c>
       <c r="Y26" t="n">
-        <v>1756.718735138289</v>
+        <v>915.0433909611256</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L27" t="n">
-        <v>394.9608689238808</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M27" t="n">
-        <v>1055.800923465659</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N27" t="n">
-        <v>1716.640978007438</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O27" t="n">
-        <v>1716.640978007438</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P27" t="n">
-        <v>1716.640978007438</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q27" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R27" t="n">
         <v>1716.640978007438</v>
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1043.799427915185</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C28" t="n">
-        <v>871.2377163984103</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D28" t="n">
-        <v>705.359723599933</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E28" t="n">
-        <v>535.6017198506702</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F28" t="n">
-        <v>358.8946658124264</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933182</v>
       </c>
       <c r="K28" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644535</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324147</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1235.618046634173</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y28" t="n">
-        <v>1235.618046634173</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="29">
@@ -6446,43 +6448,43 @@
         <v>915.0433909611256</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194208</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L29" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M29" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N29" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O29" t="n">
-        <v>1375.081325612185</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P29" t="n">
-        <v>2035.921380153963</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q29" t="n">
-        <v>2582.420166112558</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6500,10 +6502,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W29" t="n">
-        <v>2634.537682508855</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X29" t="n">
-        <v>2215.395219088166</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y29" t="n">
         <v>2215.395219088166</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C30" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D30" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E30" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F30" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G30" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="K30" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="L30" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="M30" t="n">
-        <v>53.40121652862856</v>
+        <v>1231.207939253531</v>
       </c>
       <c r="N30" t="n">
-        <v>53.40121652862856</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="O30" t="n">
-        <v>397.8892067392439</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="P30" t="n">
-        <v>1058.729261281022</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="Q30" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R30" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S30" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T30" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U30" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V30" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W30" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X30" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y30" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D31" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F31" t="n">
-        <v>142.0611657539532</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W31" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1789.095648603258</v>
+        <v>927.4534741707607</v>
       </c>
       <c r="C32" t="n">
-        <v>1350.953175786681</v>
+        <v>489.3110013541841</v>
       </c>
       <c r="D32" t="n">
-        <v>915.0433909611256</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194208</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M32" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6728,22 +6730,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U32" t="n">
-        <v>2616.524235724294</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V32" t="n">
-        <v>2616.524235724294</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W32" t="n">
-        <v>2616.524235724294</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X32" t="n">
-        <v>2197.381772303605</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="Y32" t="n">
-        <v>1789.095648603258</v>
+        <v>1353.753044655668</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N33" t="n">
-        <v>53.40121652862856</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="O33" t="n">
-        <v>714.2412710704069</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P33" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q33" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R33" t="n">
         <v>1716.640978007438</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C34" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D34" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E34" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F34" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K34" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6883,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T34" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U34" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V34" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W34" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X34" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y34" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.808950312733</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="C35" t="n">
-        <v>882.6664774961569</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D35" t="n">
-        <v>882.6664774961569</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E35" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M35" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.11942280532</v>
+        <v>2544.725150926729</v>
       </c>
       <c r="V35" t="n">
-        <v>1744.502472739146</v>
+        <v>2182.108200860555</v>
       </c>
       <c r="W35" t="n">
-        <v>1744.502472739146</v>
+        <v>1777.252746271589</v>
       </c>
       <c r="X35" t="n">
-        <v>1325.360009318457</v>
+        <v>1777.252746271589</v>
       </c>
       <c r="Y35" t="n">
-        <v>1320.808950312733</v>
+        <v>1777.252746271589</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M36" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N36" t="n">
-        <v>397.8892067392439</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="O36" t="n">
-        <v>397.8892067392439</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P36" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q36" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
         <v>565.4575492903075</v>
@@ -7084,13 +7086,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7120,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1824.618792525831</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C38" t="n">
-        <v>1386.476319709254</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D38" t="n">
-        <v>950.5665348836988</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E38" t="n">
-        <v>516.7917900419939</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F38" t="n">
-        <v>88.92436045120161</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M38" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W38" t="n">
-        <v>2670.060826431428</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X38" t="n">
-        <v>2250.918363010739</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2250.918363010739</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O39" t="n">
-        <v>397.8892067392439</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P39" t="n">
         <v>1058.729261281022</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.1364226482442</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C40" t="n">
-        <v>749.5747111314691</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D40" t="n">
-        <v>749.5747111314691</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E40" t="n">
-        <v>579.8167073822065</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H40" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T40" t="n">
-        <v>2424.181380009883</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U40" t="n">
-        <v>2145.748379262989</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V40" t="n">
-        <v>1858.792871133419</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W40" t="n">
-        <v>1586.766466719711</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X40" t="n">
-        <v>1341.374712053123</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.955041367231</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1416.332668825484</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C41" t="n">
-        <v>978.1901960089076</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="D41" t="n">
-        <v>542.280411183352</v>
+        <v>980.4228839999291</v>
       </c>
       <c r="E41" t="n">
-        <v>108.5056663416472</v>
+        <v>546.6481391582242</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862856</v>
+        <v>118.780709567432</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L41" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M41" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N41" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7482,34 +7484,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L42" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M42" t="n">
-        <v>397.8892067392439</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="N42" t="n">
-        <v>397.8892067392439</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O42" t="n">
-        <v>397.8892067392439</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P42" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q42" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R42" t="n">
         <v>1716.640978007438</v>
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>903.8972536055596</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>731.3355420887846</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>565.4575492903073</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>395.6995455410446</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>218.9924915028008</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7594,7 +7596,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.821657388743</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
         <v>2405.942210967199</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1697.183430080417</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.601755817686</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D44" t="n">
-        <v>840.020081554954</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E44" t="n">
-        <v>411.4384072922223</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M44" t="n">
-        <v>33.94366860160834</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N44" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.183430080417</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y44" t="n">
-        <v>1697.183430080417</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L45" t="n">
-        <v>437.0247332457074</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M45" t="n">
-        <v>857.0776321906106</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N45" t="n">
-        <v>1277.130531135514</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="O45" t="n">
-        <v>1697.183430080417</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="P45" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q45" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W46" t="n">
-        <v>613.8890703687</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X46" t="n">
-        <v>368.4973157021125</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.0776450162207</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
   </sheetData>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>226.6534083847601</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8301,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8863,7 +8865,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O15" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P15" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O18" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P18" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M20" t="n">
-        <v>910.7345556956095</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N20" t="n">
-        <v>225.1134469741761</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1527324371089</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,25 +9643,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078567</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>200.3264657984384</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O30" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10355,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O33" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="P33" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P33" t="n">
-        <v>347.9676668794094</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10671,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P39" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M41" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P42" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11379,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22556,16 +22558,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>231.4681511925552</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>254.459006914895</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>26.33579611060358</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>18.9560849234295</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>376.9158587958685</v>
       </c>
     </row>
     <row r="6">
@@ -22942,19 +22944,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>55.07653710780754</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>140.723205983294</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>96.08305090284324</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>275.8072779004123</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473433</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>124.0886560130857</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>100.8866705792657</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>144.1344859240868</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>19.51759399261599</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>302.5931933451821</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>346.2534947281885</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23792,7 +23794,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>347.8056752430138</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>306.1558082242928</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>146.578308640672</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>369.0353499799955</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.92021546249589</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24443,19 +24445,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24497,13 +24499,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>98.11480039896784</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>315.7525309126952</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>52.94985625022227</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24740,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>365.6389875597296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>369.0353499799953</v>
       </c>
     </row>
     <row r="30">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -24968,22 +24970,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>203.6288548560905</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>335.3528736257746</v>
       </c>
     </row>
     <row r="33">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>132.5477609065009</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>399.6977140476765</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>362.2159405796214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>330.3860971166854</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>44.00051207685047</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>90.92021546249543</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>333.0707764336847</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>49.86896399117649</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25928,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>369.0353499799953</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481922.5005525148</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481922.5005525148</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481922.5005525148</v>
+        <v>481922.500552515</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481922.5005525149</v>
+        <v>481922.500552515</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>588987.4498251807</v>
+        <v>481922.500552515</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750772.057395727</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481922.5005525148</v>
+        <v>481922.500552515</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481922.5005525149</v>
+        <v>481922.500552515</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481922.5005525148</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481922.5005525148</v>
+        <v>481922.500552515</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481922.5005525149</v>
+        <v>481922.500552515</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342576.6620519095</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
   </sheetData>
@@ -26329,10 +26331,10 @@
         <v>109912.1492488192</v>
       </c>
       <c r="H2" t="n">
-        <v>134330.4710127605</v>
+        <v>109912.1492488192</v>
       </c>
       <c r="I2" t="n">
-        <v>171228.7148446395</v>
+        <v>109912.1492488192</v>
       </c>
       <c r="J2" t="n">
         <v>109912.1492488192</v>
@@ -26353,7 +26355,7 @@
         <v>109912.1492488192</v>
       </c>
       <c r="P2" t="n">
-        <v>78131.51941534778</v>
+        <v>109912.1492488192</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97732.86753544268</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14853.50628781394</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="C4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="D4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="E4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="F4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="G4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="H4" t="n">
-        <v>632.5750324351229</v>
+        <v>517.5868204130783</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="J4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="K4" t="n">
         <v>517.586820413078</v>
       </c>
       <c r="L4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="M4" t="n">
         <v>517.5868204130782</v>
@@ -26454,10 +26456,10 @@
         <v>517.5868204130782</v>
       </c>
       <c r="O4" t="n">
+        <v>517.586820413078</v>
+      </c>
+      <c r="P4" t="n">
         <v>517.5868204130782</v>
-      </c>
-      <c r="P4" t="n">
-        <v>367.9287957210698</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>55372.66098629306</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188517.6607173964</v>
+        <v>-188517.6607173965</v>
       </c>
       <c r="C6" t="n">
         <v>35182.0378666484</v>
       </c>
       <c r="D6" t="n">
-        <v>35182.03786664843</v>
+        <v>35182.0378666484</v>
       </c>
       <c r="E6" t="n">
         <v>68809.63786664841</v>
@@ -26534,22 +26536,22 @@
         <v>68809.63786664841</v>
       </c>
       <c r="G6" t="n">
-        <v>68809.63786664844</v>
+        <v>68809.63786664841</v>
       </c>
       <c r="H6" t="n">
-        <v>12702.4656360149</v>
+        <v>68809.63786664841</v>
       </c>
       <c r="I6" t="n">
-        <v>-5028.723687378297</v>
+        <v>68809.63786664841</v>
       </c>
       <c r="J6" t="n">
-        <v>53956.13157883446</v>
+        <v>-105841.7108510577</v>
       </c>
       <c r="K6" t="n">
         <v>68809.63786664844</v>
       </c>
       <c r="L6" t="n">
-        <v>68809.63786664838</v>
+        <v>68809.63786664844</v>
       </c>
       <c r="M6" t="n">
         <v>68809.63786664841</v>
@@ -26561,7 +26563,7 @@
         <v>68809.63786664841</v>
       </c>
       <c r="P6" t="n">
-        <v>51966.40248240436</v>
+        <v>68809.63786664844</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>910.7345556956095</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>367.5259476891358</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.76990983096857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>226.6534083847601</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908046</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35021,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645586</v>
@@ -35419,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,16 +35576,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O15" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P15" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,10 +35810,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,19 +35892,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O18" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P18" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M20" t="n">
-        <v>910.7345556956095</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N20" t="n">
-        <v>225.1134469741761</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1527324371089</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36361,25 +36363,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,25 +36600,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908046</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -36771,7 +36773,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078567</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>200.3264657984384</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O30" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O33" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="P33" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P33" t="n">
-        <v>347.9676668794094</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37233,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37634,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P39" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M41" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P42" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183264.8485486611</v>
+        <v>179046.6149083764</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22099924.35763672</v>
+        <v>22099924.3576367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7423353.428718869</v>
+        <v>7423353.428718871</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5572529.116359</v>
+        <v>5572529.116358999</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>32.19246757545142</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>2.171072741258258</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>137.599566113827</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>10.04027365719921</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>85.29719224911115</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.28740366747457</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>115.7595572937998</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>301.3008021601255</v>
+        <v>178.994826961204</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>222.6988144892036</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>155.7434090768876</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>359.3468500315928</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950059</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>170.8964528399294</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>56.39758722032963</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>191.2987131324391</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1849,10 +1849,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>401.8894014786352</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>53.00122480006321</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2146,10 +2146,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>268.3727301458104</v>
+        <v>10.68775547665607</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.00122480006321</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>325.5551716406952</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>158.5152792571854</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>235.4185821004756</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022953</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>35.16791248334739</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>35.16791248334784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3034,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3091,13 +3091,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>117.2027289822448</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>68.85038883756854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170476</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>70.87562473588777</v>
       </c>
       <c r="U35" t="n">
-        <v>124.0823187496523</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3562,10 +3562,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>28.60468344882636</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>99.05090027660169</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5004364948338</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>64.31307662928398</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>238.8149445207416</v>
       </c>
     </row>
     <row r="42">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>337.6253917118488</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.16791248334784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>131.996999652747</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342.9481604582723</v>
+        <v>85.91886054423605</v>
       </c>
       <c r="C2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="D2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="E2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2364.148722719356</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2001.531772653183</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.676318064216</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X2" t="n">
-        <v>1177.533854643527</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y2" t="n">
-        <v>769.2477309431802</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705998</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705998</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="D4" t="n">
-        <v>767.4178585721226</v>
+        <v>575.5992398531349</v>
       </c>
       <c r="E4" t="n">
-        <v>597.6598548228599</v>
+        <v>405.8412361038722</v>
       </c>
       <c r="F4" t="n">
-        <v>420.9528007846161</v>
+        <v>229.1341820656284</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>63.54290709145604</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>63.54290709145604</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933182</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644535</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324147</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>892.9415207219413</v>
+        <v>925.3184341869101</v>
       </c>
       <c r="C5" t="n">
-        <v>454.7990479053647</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="D5" t="n">
-        <v>454.7990479053647</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2583.902046381821</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2583.902046381821</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2583.902046381821</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.647018150181</v>
+        <v>2179.046591792854</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294914</v>
+        <v>1759.904128372164</v>
       </c>
       <c r="Y5" t="n">
-        <v>892.9415207219413</v>
+        <v>1351.618004671818</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>624.5483869002998</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6703941018225</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>458.6703941018225</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.159834655252</v>
+        <v>1531.756031303049</v>
       </c>
       <c r="C8" t="n">
-        <v>1075.159834655252</v>
+        <v>1531.756031303049</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.159834655252</v>
+        <v>1095.846246477493</v>
       </c>
       <c r="E8" t="n">
-        <v>1075.159834655252</v>
+        <v>662.0715016357885</v>
       </c>
       <c r="F8" t="n">
-        <v>647.2924050644597</v>
+        <v>234.2040720449963</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365255</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355599</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655252</v>
+        <v>1958.055601787957</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2039.991713844038</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1753.036205714468</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1481.00980130076</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1235.618046634173</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>491.5436893452053</v>
+        <v>1214.448588743694</v>
       </c>
       <c r="C11" t="n">
-        <v>53.40121652862857</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="D11" t="n">
-        <v>53.40121652862857</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E11" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N11" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O11" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2512.744251606289</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V11" t="n">
-        <v>2150.127301540116</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W11" t="n">
-        <v>1745.271846951149</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X11" t="n">
-        <v>1326.12938353046</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="Y11" t="n">
-        <v>917.8432598301131</v>
+        <v>1640.748159228602</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K12" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L12" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M12" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N12" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O12" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C13" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D13" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>392.5208932891006</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508568</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K13" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
@@ -5223,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U13" t="n">
-        <v>2356.071333755254</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V13" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W13" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X13" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y13" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.095648603258</v>
+        <v>1389.206308363837</v>
       </c>
       <c r="C14" t="n">
-        <v>1350.953175786681</v>
+        <v>951.0638355472602</v>
       </c>
       <c r="D14" t="n">
-        <v>915.0433909611256</v>
+        <v>515.1540507217046</v>
       </c>
       <c r="E14" t="n">
-        <v>481.2686461194209</v>
+        <v>515.1540507217046</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>515.1540507217046</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N14" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V14" t="n">
-        <v>2613.093566612913</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W14" t="n">
-        <v>2208.238112023947</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="X14" t="n">
-        <v>1789.095648603258</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="Y14" t="n">
-        <v>1789.095648603258</v>
+        <v>1815.505878848744</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.4772326516127</v>
+        <v>826.6792100324072</v>
       </c>
       <c r="C16" t="n">
-        <v>568.9155211348376</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="D16" t="n">
-        <v>403.0375283363603</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E16" t="n">
-        <v>233.2795245870976</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F16" t="n">
-        <v>56.57247054885377</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5442,7 +5442,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
@@ -5463,25 +5463,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U16" t="n">
-        <v>1965.089189266357</v>
+        <v>2050.291166647151</v>
       </c>
       <c r="V16" t="n">
-        <v>1678.133681136788</v>
+        <v>1763.335658517582</v>
       </c>
       <c r="W16" t="n">
-        <v>1406.107276723079</v>
+        <v>1491.309254103874</v>
       </c>
       <c r="X16" t="n">
-        <v>1160.715522056492</v>
+        <v>1245.917499437286</v>
       </c>
       <c r="Y16" t="n">
-        <v>933.2958513705998</v>
+        <v>1018.497828751394</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1789.095648603258</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="C17" t="n">
-        <v>1350.953175786681</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="D17" t="n">
-        <v>915.0433909611256</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="E17" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M17" t="n">
-        <v>632.7278666362199</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N17" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>2616.524235724294</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X17" t="n">
-        <v>2197.381772303605</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y17" t="n">
-        <v>1789.095648603258</v>
+        <v>1325.360009318457</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N18" t="n">
-        <v>277.7880908295409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O18" t="n">
-        <v>938.6281453713193</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P18" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
         <v>1599.468199913098</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>743.9292024621484</v>
+        <v>1328.851305547497</v>
       </c>
       <c r="C20" t="n">
-        <v>743.9292024621484</v>
+        <v>890.7088327309202</v>
       </c>
       <c r="D20" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E20" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L20" t="n">
-        <v>1810.336013065103</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M20" t="n">
-        <v>1954.407975719777</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N20" t="n">
-        <v>1954.407975719777</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O20" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2190.771296621484</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V20" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W20" t="n">
-        <v>1423.298891966344</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X20" t="n">
-        <v>1152.215326162495</v>
+        <v>1328.851305547497</v>
       </c>
       <c r="Y20" t="n">
-        <v>743.9292024621484</v>
+        <v>1328.851305547497</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
         <v>1716.640978007438</v>
@@ -5901,13 +5901,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>1216.583628727544</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>778.4411559109678</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194209</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M23" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N23" t="n">
-        <v>1375.081325612186</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O23" t="n">
-        <v>2009.22077188965</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P23" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V23" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W23" t="n">
-        <v>2670.060826431428</v>
+        <v>1635.726092148234</v>
       </c>
       <c r="X23" t="n">
-        <v>2250.918363010739</v>
+        <v>1216.583628727544</v>
       </c>
       <c r="Y23" t="n">
-        <v>1842.632239310392</v>
+        <v>1216.583628727544</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
         <v>1599.468199913098</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6174,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>915.0433909611256</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C26" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194209</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M26" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N26" t="n">
         <v>1293.567921177998</v>
@@ -6244,10 +6244,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2509.944382737302</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V26" t="n">
-        <v>2147.327432671128</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W26" t="n">
-        <v>1742.471978082162</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="X26" t="n">
-        <v>1323.329514661472</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="Y26" t="n">
-        <v>915.0433909611256</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N27" t="n">
-        <v>714.241271070407</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O27" t="n">
-        <v>1375.081325612186</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P27" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q27" t="n">
         <v>1599.468199913098</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.4772326516127</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C28" t="n">
-        <v>568.9155211348376</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D28" t="n">
-        <v>403.0375283363603</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E28" t="n">
-        <v>233.2795245870976</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F28" t="n">
-        <v>56.57247054885377</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933182</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K28" t="n">
-        <v>414.7393562644535</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324147</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6411,25 +6411,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y28" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="29">
@@ -6448,43 +6448,43 @@
         <v>915.0433909611256</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L29" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M29" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N29" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O29" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,19 +6493,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="U29" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="V29" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="W29" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X29" t="n">
-        <v>2250.918363010739</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y29" t="n">
         <v>2215.395219088166</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C30" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D30" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E30" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F30" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G30" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K30" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L30" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.207939253531</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N30" t="n">
-        <v>1892.04799379531</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O30" t="n">
-        <v>2552.888048337089</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P30" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S30" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T30" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U30" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V30" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W30" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X30" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y30" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>395.6995455410447</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>927.4534741707607</v>
+        <v>780.6738439019889</v>
       </c>
       <c r="C32" t="n">
-        <v>489.3110013541841</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="D32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="E32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M32" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N32" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2190.771296621484</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>1423.298891966344</v>
+        <v>1626.115877807586</v>
       </c>
       <c r="X32" t="n">
-        <v>1423.298891966344</v>
+        <v>1206.973414386897</v>
       </c>
       <c r="Y32" t="n">
-        <v>1353.753044655668</v>
+        <v>1206.973414386897</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q33" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R33" t="n">
         <v>1716.640978007438</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.8950539462408</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C34" t="n">
-        <v>590.3333424294657</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D34" t="n">
-        <v>424.4553496309884</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E34" t="n">
-        <v>254.6973458817257</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F34" t="n">
-        <v>77.99029184348186</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U34" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V34" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W34" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X34" t="n">
-        <v>1182.13334335112</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y34" t="n">
-        <v>954.7136726652279</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.953175786681</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C35" t="n">
-        <v>1350.953175786681</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D35" t="n">
-        <v>915.0433909611256</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E35" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M35" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N35" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6967,22 +6967,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.469286294167</v>
       </c>
       <c r="U35" t="n">
-        <v>2544.725150926729</v>
+        <v>2339.246983611184</v>
       </c>
       <c r="V35" t="n">
-        <v>2182.108200860555</v>
+        <v>1976.630033545011</v>
       </c>
       <c r="W35" t="n">
-        <v>1777.252746271589</v>
+        <v>1571.774578956044</v>
       </c>
       <c r="X35" t="n">
-        <v>1777.252746271589</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y35" t="n">
-        <v>1777.252746271589</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N36" t="n">
-        <v>515.0619848335834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O36" t="n">
-        <v>1175.902039375362</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P36" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7086,13 +7086,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2078.225803160042</v>
+        <v>1644.451058318337</v>
       </c>
       <c r="C38" t="n">
-        <v>1640.083330343465</v>
+        <v>1206.30858550176</v>
       </c>
       <c r="D38" t="n">
-        <v>1204.173545517909</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="E38" t="n">
         <v>770.3988006762045</v>
@@ -7168,34 +7168,34 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7204,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V38" t="n">
-        <v>2078.225803160042</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W38" t="n">
-        <v>2078.225803160042</v>
+        <v>1644.451058318337</v>
       </c>
       <c r="X38" t="n">
-        <v>2078.225803160042</v>
+        <v>1644.451058318337</v>
       </c>
       <c r="Y38" t="n">
-        <v>2078.225803160042</v>
+        <v>1644.451058318337</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
         <v>1058.729261281022</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>992.5572028308845</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>819.9954913141095</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>654.1174985156322</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>484.3594947663694</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>307.6524407281256</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7356,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2494.602160192524</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>2216.169159445629</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1929.213651316059</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1657.187246902351</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1411.795492235764</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>1184.375821549872</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1416.332668825485</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C41" t="n">
-        <v>1416.332668825485</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D41" t="n">
-        <v>980.4228839999291</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E41" t="n">
-        <v>546.6481391582242</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F41" t="n">
-        <v>118.780709567432</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G41" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.081325612186</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M41" t="n">
-        <v>1375.081325612186</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N41" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7441,22 +7441,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X41" t="n">
-        <v>2250.918363010739</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y41" t="n">
-        <v>1842.632239310392</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
         <v>1716.640978007438</v>
@@ -7560,13 +7560,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>923.0857461958889</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194209</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M44" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N44" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X44" t="n">
-        <v>2250.918363010739</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.395219088166</v>
+        <v>1361.228219012466</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N45" t="n">
-        <v>277.7880908295409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O45" t="n">
-        <v>938.6281453713193</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P45" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
         <v>1599.468199913098</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7830,28 +7830,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>2356.071333755254</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8701,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>347.9676668794093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O20" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L20" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="M20" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O23" t="n">
-        <v>640.544895229762</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9883,16 +9883,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>667.5152066078572</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q27" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10117,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>200.3264657984384</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>667.5152066078572</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10357,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O32" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O35" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>667.5152066078571</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O41" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>401.5685805129595</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22564,10 +22564,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.459006914895</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>26.33579611060358</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>77.73307607587221</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,13 +22792,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>132.5693626065806</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>376.9158587958685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>55.07653710780754</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>96.08305090284324</v>
+        <v>218.3890261017647</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>52.94985625022215</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23266,7 +23266,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23275,7 +23275,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>100.8866705792657</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.8564124317503</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>226.4874002230393</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23554,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>302.5931933451821</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>84.34995760698664</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>29.66128549866465</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>347.8056752430138</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>146.578308640672</v>
+        <v>404.2632833098263</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>369.0353499799955</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>75.25172840238179</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24496,19 +24496,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>98.11480039896784</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>165.3883179426014</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444076</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>182.6986423723444</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>369.0353499799953</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24934,7 +24934,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>283.6041710608322</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>335.3528736257746</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627258</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>146.990930119804</v>
       </c>
       <c r="U35" t="n">
-        <v>132.5477609065009</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>330.3860971166854</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>301.7559997664753</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>90.92021546249543</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0707764336847</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>165.3883179426015</v>
       </c>
     </row>
     <row r="42">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>77.32564707463359</v>
       </c>
       <c r="Y44" t="n">
-        <v>369.0353499799953</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481922.5005525149</v>
+        <v>481922.5005525147</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481922.5005525149</v>
+        <v>481922.5005525147</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481922.500552515</v>
+        <v>481922.5005525148</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481922.500552515</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481922.500552515</v>
+        <v>481922.5005525148</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481922.500552515</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481922.500552515</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481922.500552515</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481922.5005525149</v>
+        <v>481922.5005525148</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481922.500552515</v>
+        <v>481922.5005525149</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481922.5005525149</v>
+        <v>481922.5005525148</v>
       </c>
     </row>
   </sheetData>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="C4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="D4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="E4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="F4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="G4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="H4" t="n">
-        <v>517.5868204130783</v>
+        <v>517.586820413078</v>
       </c>
       <c r="I4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="J4" t="n">
         <v>517.5868204130782</v>
       </c>
       <c r="K4" t="n">
+        <v>517.5868204130782</v>
+      </c>
+      <c r="L4" t="n">
         <v>517.586820413078</v>
       </c>
-      <c r="L4" t="n">
-        <v>517.5868204130782</v>
-      </c>
       <c r="M4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="N4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="O4" t="n">
         <v>517.586820413078</v>
       </c>
       <c r="P4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188517.6607173965</v>
+        <v>-189012.5509459777</v>
       </c>
       <c r="C6" t="n">
-        <v>35182.0378666484</v>
+        <v>34687.14763806716</v>
       </c>
       <c r="D6" t="n">
-        <v>35182.0378666484</v>
+        <v>34687.14763806714</v>
       </c>
       <c r="E6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806714</v>
       </c>
       <c r="F6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806711</v>
       </c>
       <c r="G6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806716</v>
       </c>
       <c r="H6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806714</v>
       </c>
       <c r="I6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806714</v>
       </c>
       <c r="J6" t="n">
-        <v>-105841.7108510577</v>
+        <v>-106336.601079639</v>
       </c>
       <c r="K6" t="n">
-        <v>68809.63786664844</v>
+        <v>68314.74763806716</v>
       </c>
       <c r="L6" t="n">
-        <v>68809.63786664844</v>
+        <v>68314.74763806711</v>
       </c>
       <c r="M6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806719</v>
       </c>
       <c r="N6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806716</v>
       </c>
       <c r="O6" t="n">
-        <v>68809.63786664841</v>
+        <v>68314.74763806714</v>
       </c>
       <c r="P6" t="n">
-        <v>68809.63786664844</v>
+        <v>68314.74763806714</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908046</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35421,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>347.9676668794093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35658,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35892,16 +35892,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O20" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L20" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="M20" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O23" t="n">
-        <v>640.544895229762</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36603,16 +36603,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>667.5152066078572</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q27" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908046</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -36773,7 +36773,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>200.3264657984384</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>667.5152066078572</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O32" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37235,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37314,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O35" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>667.5152066078571</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37782,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O41" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
